--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -152,33 +164,33 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="13.55859375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="13.9296875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.09375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.1484375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.26171875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.20703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="17.078125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="22.22265625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1430,10 +1442,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1477,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1523,28 +1535,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1777,10 +1789,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1824,28 +1836,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1870,28 +1882,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2095,10 +2107,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2142,28 +2154,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2188,28 +2200,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2413,10 +2425,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2460,28 +2472,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2506,28 +2518,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2702,10 +2714,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2749,28 +2761,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2795,28 +2807,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2962,10 +2974,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3009,28 +3021,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3055,28 +3067,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3222,10 +3234,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3269,28 +3281,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3315,28 +3327,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3482,10 +3494,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3529,28 +3541,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3575,28 +3587,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3742,10 +3754,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3789,28 +3801,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3835,28 +3847,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4031,10 +4043,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4078,28 +4090,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4124,28 +4136,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4204,10 +4216,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4251,28 +4263,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4297,28 +4309,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4435,10 +4447,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4482,28 +4494,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4528,28 +4540,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4666,10 +4678,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4713,28 +4725,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4759,28 +4771,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4839,10 +4851,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4886,28 +4898,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4932,28 +4944,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5041,10 +5053,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5088,28 +5100,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5134,28 +5146,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5272,10 +5284,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5319,28 +5331,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5365,28 +5377,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5445,10 +5457,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5492,28 +5504,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5538,28 +5550,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5676,10 +5688,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5723,28 +5735,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5769,28 +5781,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5878,10 +5890,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5925,28 +5937,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5971,28 +5983,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6051,10 +6063,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6098,28 +6110,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6144,28 +6156,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6224,10 +6236,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6271,28 +6283,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6317,28 +6329,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6426,10 +6438,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6473,28 +6485,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6519,28 +6531,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6599,10 +6611,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6646,28 +6658,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6692,28 +6704,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6772,10 +6784,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6819,28 +6831,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6865,28 +6877,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7003,10 +7015,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7050,28 +7062,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7096,28 +7108,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7176,10 +7188,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7223,28 +7235,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7269,28 +7281,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7349,10 +7361,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7396,28 +7408,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7442,28 +7454,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7551,10 +7563,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7598,28 +7610,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7644,28 +7656,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7724,10 +7736,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7771,28 +7783,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7817,28 +7829,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7955,10 +7967,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
